--- a/Study 3/Shocks/GCAM/CP_EI - 2075.xlsx
+++ b/Study 3/Shocks/GCAM/CP_EI - 2075.xlsx
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.04839650390571519</v>
+        <v>0.0483965039057152</v>
       </c>
     </row>
     <row r="5">
@@ -12122,7 +12122,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.07006925744815841</v>
+        <v>0.07006925744815842</v>
       </c>
     </row>
     <row r="21">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.05298722363253869</v>
+        <v>0.0529872236325387</v>
       </c>
     </row>
     <row r="29">
@@ -12922,7 +12922,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.1945187879740211</v>
+        <v>0.1945187879740212</v>
       </c>
     </row>
     <row r="41">
